--- a/Gramercy Park OSS.xlsx
+++ b/Gramercy Park OSS.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-33420" yWindow="-12020" windowWidth="32600" windowHeight="18400" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Open Source Policy" sheetId="4" r:id="rId1"/>
@@ -598,7 +598,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
   <si>
     <t>MODIFICATION HISTORY</t>
   </si>
@@ -906,6 +906,27 @@
   </si>
   <si>
     <t>jQuery</t>
+  </si>
+  <si>
+    <t>https://github.com/cowboy/jquery-dotimeout/blob/master/LICENSE-MIT</t>
+  </si>
+  <si>
+    <t>jquery-dotimeout</t>
+  </si>
+  <si>
+    <t>v1.0</t>
+  </si>
+  <si>
+    <t>Coding Help</t>
+  </si>
+  <si>
+    <t>09.09.2014</t>
+  </si>
+  <si>
+    <t>08.09.2014</t>
+  </si>
+  <si>
+    <t>v2.1.1</t>
   </si>
 </sst>
 </file>
@@ -1297,7 +1318,7 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -1544,15 +1565,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5018,13 +5042,13 @@
       <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:6" ht="21">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
       <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6" ht="13" thickBot="1">
@@ -5143,7 +5167,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -5309,14 +5333,16 @@
       <c r="B6" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" s="12" t="s">
         <v>64</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="88" t="s">
+      <c r="F6" s="86" t="s">
         <v>68</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -5346,8 +5372,12 @@
       <c r="A7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="D7" s="11"/>
       <c r="E7" s="8"/>
       <c r="F7" s="39"/>
@@ -5360,20 +5390,46 @@
       <c r="M7" s="1"/>
       <c r="N7" s="84"/>
     </row>
-    <row r="8" spans="1:14" s="13" customFormat="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+    <row r="8" spans="1:14" s="13" customFormat="1" ht="44">
+      <c r="A8" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="N8" s="84"/>
     </row>
     <row r="9" spans="1:14" s="13" customFormat="1">
@@ -5739,12 +5795,15 @@
   </sheetData>
   <sheetProtection password="CD29" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="0" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A8" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
   <pageSetup paperSize="5" scale="56" fitToWidth="2" orientation="landscape"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;CCopyright © 2005 Lawson  Software Inc. all rights reserved</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
